--- a/selimkafa/evidence.xlsx
+++ b/selimkafa/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
   <si>
     <t>TxHash</t>
   </si>
@@ -73,24 +73,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -137,13 +119,68 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>862683E122414DA33BE71A67463E39747526032452027F61E542903D69AFA2C0</t>
+  </si>
+  <si>
+    <t>medes-collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205259034F9B8E3778F22A28BAACC7FDACF0442AAFC98B18E4FBDE42615459A6
+</t>
+  </si>
+  <si>
+    <t>nft00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7761F1097A899445403D624675D666F41CB8723FD68B272E2EE1E1A080BDF40E
+</t>
+  </si>
+  <si>
+    <t>nft00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15017B38A6C15261512D9D3362B0C7A0273C57B75B31E5F50CAE06C0A41AB203
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juno1x3rgzuskwlqzjks49vkgzqhudzrznjtpssnxghl84xwutk6trxqqmxe8j0
+</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34AFFD653B44F921CE7D7E92D4C55D1BE2C140781501468E262AF5316432C130
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/B179ADC3132148D1D71EDDD7D8C8EC0175BB403AD4A2B1942651506CD687ABFB
+</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D96AEAF7C0929F3183C1C6B455B9FB0EFE097F6E0E6729C44C22D5381A8794F1
+</t>
+  </si>
+  <si>
+    <t>juno1x3rgzuskwlqzjks49vkgzqhudzrznjtpssnxghl84xwutk6trxqqmxe8j0</t>
+  </si>
+  <si>
+    <t>14DD78B25323B0691CA83052838A9441403F62E2F5F0D2429216F426D445666D</t>
+  </si>
+  <si>
+    <t>ibc/B179ADC3132148D1D71EDDD7D8C8EC0175BB403AD4A2B1942651506CD687ABFB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +193,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="4">
@@ -210,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -226,6 +270,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -548,54 +602,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1096,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1058,11 +1114,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1307,13 +1363,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1329,18 +1388,30 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1351,7 +1422,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1375,17 +1448,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1473,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1424,17 +1499,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1524,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1473,17 +1550,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1575,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1524,16 +1603,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/selimkafa/evidence.xlsx
+++ b/selimkafa/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
   <si>
     <t>TxHash</t>
   </si>
@@ -52,27 +52,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
   </si>
   <si>
     <t>juno12vcrw9cjvsnzs02q2fp9p4lx4pzfhxnkfasqjq</t>
-  </si>
-  <si>
-    <t>uptick18q4rsqnxpd0rfyfjc8p8hzf0yk7vxn6d5pyd2m</t>
   </si>
   <si>
     <t>omniflix12vcrw9cjvsnzs02q2fp9p4lx4pzfhxnkz3zzzz</t>
@@ -174,6 +156,165 @@
   </si>
   <si>
     <t>ibc/B179ADC3132148D1D71EDDD7D8C8EC0175BB403AD4A2B1942651506CD687ABFB</t>
+  </si>
+  <si>
+    <t>ibc/EACCED11BA680CDB0824FD8BA042046716757EF62DE8ED81D95F334CF0AA67C4</t>
+  </si>
+  <si>
+    <t>medesnft01</t>
+  </si>
+  <si>
+    <t>uptick1mxcuxxqytjq5g8pmz5vpy55ndsldc654pa4723</t>
+  </si>
+  <si>
+    <t>ibc/9AF1DE166BE70ECF4B36CA7B8FC8BEF991C90869F98447BC5516D478E98DB0C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medesnft02
+</t>
+  </si>
+  <si>
+    <t>ibc/DF8628954AE7117D87442BAECD323E5AF1F7E739CBEFB3DF1F83B3264E759952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medesnft03
+</t>
+  </si>
+  <si>
+    <t>ibc/A9DD0F09DD6D8BED38E45C5DC4C05C37588C236F3E7B00BAE8770282D914BA0F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medesnft04
+</t>
+  </si>
+  <si>
+    <t>ibc/39BDD403A8740CAF7A59B093D60459245764204889CF1BD40F622912CA522993</t>
+  </si>
+  <si>
+    <t>medesnft05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ibc/8C55209F803551A2B445EF46D51278A3F1FE6085288FB3E936EEA7CEA2C3CB44</t>
+  </si>
+  <si>
+    <t>medesnft06</t>
+  </si>
+  <si>
+    <t>E852A136DADE96B2414DEA62A008382AA95C0AB256257FF1A3C4713651D5A392</t>
+  </si>
+  <si>
+    <t>E6CBED2B88956D32C677A887F4019C8B3F96A4E409CB44EA98BAE07D869A38C6</t>
+  </si>
+  <si>
+    <t>44084FCA6AA687992ED283318B1FC62B3DB3D97B66FEC4467E09DF6785053C23</t>
+  </si>
+  <si>
+    <t>0876DB8AE84B936A12CABFDF57FC0F92DFAFAEF1AA359B7AADF0EE6EAFB09985</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>20600664F94538D4BD1A6749BE83F5C067DCFD705D38F8A8B6BD778D4FC83BB7</t>
+  </si>
+  <si>
+    <t>3CEA2F5D08717A9AD1C9EDA41F11CD184E56F2D217EDF02068FD0C9BF31587BD</t>
+  </si>
+  <si>
+    <t>DB4FD56A88F78BD2A936947E9F526A78AC30E47C803BBB26CE6984D986AD0663</t>
+  </si>
+  <si>
+    <t>B1A2C59B495532EAC7D2811563BF6A920E43C151CF0FB8B06CDEC830BFCBE1F7</t>
+  </si>
+  <si>
+    <t>2AB568CBC3A82929CDA44120BD35D052084CC4C1A95DE28ED28E200D86F2E0A0</t>
+  </si>
+  <si>
+    <t>E1D7F18BCABF6DFB9C6F9260FB814AA7385DFA0CEC1D483D3F9E466E6ABC1C18</t>
+  </si>
+  <si>
+    <t>89A65C83CA9D8F5ED088360CBF70D4D0A757F3A15EADD84F1CCF46F707ACEA7C</t>
+  </si>
+  <si>
+    <t>3325715F06138B72F7B79C4DFEBF2E9BCF46D097AA35FA72CCF2A986A693FDFA</t>
+  </si>
+  <si>
+    <t>9D8950C3EB960E1C611524F1B49B735727F95EAC85AC3E39FD59E7386FFE9FCE</t>
+  </si>
+  <si>
+    <t>1EDE86C6C58D1D8E07DFB0311A5CFF02AAECDCA974E275CE2F6F81123FAD40CA</t>
+  </si>
+  <si>
+    <t>7FFF0160E14711FDF35E1EDA80EAA50E234191910375F7376B8A60B9861910BD</t>
+  </si>
+  <si>
+    <t>7D71E0265B48460BD268D65A2D9FB67C5D7E6C0629511E25E1A422764CAEBE34</t>
+  </si>
+  <si>
+    <t>538DAEB184B24042C8834BB802C3920757DB8F3889AE240C56713AFE6A09E36A</t>
+  </si>
+  <si>
+    <t>389285785CD61DA4B79251486BC2A7403102B930DD2130E0C20A34EC4FEAC356</t>
+  </si>
+  <si>
+    <t>B70F58880E8542A93F7DFB28F89607488037E1E6082A6A1C84E4CBFE6BB3DA04</t>
+  </si>
+  <si>
+    <t>1C58ABB0B8BD903BE3031C84D3801898473A842D35F6138BCC4E827214D44247</t>
+  </si>
+  <si>
+    <t>DE99AAB16ADA5AAB436E1279E25C7EBBB96B7F2FCDB7BF412C12D254A1AABC39</t>
+  </si>
+  <si>
+    <t>125B101B3BCA4B8809AB5EBBA50B031EAB631B742391869EF1D0C32D9A92B662</t>
+  </si>
+  <si>
+    <t>7D7ABBB13D611EFA57BF50AA28793C526D8D011CD36C3A85A7542E822A781470</t>
+  </si>
+  <si>
+    <t>65D60382D73EEA95CFA7821F6E0DCF6FFE2371F354DE232F9A3D1A5440156B8D</t>
+  </si>
+  <si>
+    <t>EE4E9533A641A83FF803ACB748B9C2EB78F13E05425C4075CC49F3B6CD8E80DC</t>
+  </si>
+  <si>
+    <t>073C496906B7C12A11E061D2C62117F71A3144BE2331A60BD8AB7393F17A09E5</t>
+  </si>
+  <si>
+    <t>975D8D81BC9CE83A9672200AB9EC5AAA12E282725EC76C1AD3D92304AB092D56</t>
+  </si>
+  <si>
+    <t>740F2106ACEBD9E5B762C46C1AD89F64DB781697935ADE745E387C6301BDE51C</t>
+  </si>
+  <si>
+    <t>1416DFDFEDDEC26E125536DEB7A821F7600987F24B7AA21B19E2FCFDD3616F00</t>
+  </si>
+  <si>
+    <t>9DFE5B07BB031BEFFD4982EFC77DF5E38DDFC827EC19663D15FB072706ECCA96</t>
+  </si>
+  <si>
+    <t>DDBE92910A4EB6FE3DA99F638CC055130F9D6726F437A5B0F8484ACA697A448D</t>
+  </si>
+  <si>
+    <t>A8B285C05E1FD5A2566419AF2BE1A051E277356DF5307ED4C9E34F30CE3DD5EC</t>
+  </si>
+  <si>
+    <t>F483AF05471FBD832C4125FEA8DBDD8C3554957F9192702332025355FFDCA318</t>
+  </si>
+  <si>
+    <t>B2828A70A145C9431B0085AD232C6D4DDF75F93916BFA72B026C72CA44CB2176</t>
+  </si>
+  <si>
+    <t>791B3C6045BC5B1CA13EA254491CC2FB8E458E0A1B8C626B667562E1A163B714</t>
+  </si>
+  <si>
+    <t>C05B5246EF3FDCAA917346AA5CB36C49F35B46B709E488964E9542FAEF3F83D3</t>
   </si>
 </sst>
 </file>
@@ -585,7 +726,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -602,55 +743,55 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,7 +805,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -674,18 +817,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +843,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -710,18 +855,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +881,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -746,18 +893,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +919,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -782,18 +931,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -806,9 +955,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -826,26 +977,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>52</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -854,9 +1018,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -874,23 +1040,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -902,9 +1080,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -922,23 +1102,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -950,9 +1142,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -970,23 +1164,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,9 +1204,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1018,23 +1226,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1046,9 +1266,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1066,23 +1288,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1110,15 +1344,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1131,9 +1365,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1151,23 +1387,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,9 +1443,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1199,23 +1465,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1381,32 +1675,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1438,10 +1732,112 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1451,22 +1847,22 @@
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1474,108 +1870,6 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1592,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1603,17 +1897,17 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1627,7 +1921,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1637,18 +1933,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1959,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1673,18 +1971,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/selimkafa/evidence.xlsx
+++ b/selimkafa/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="20"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" firstSheet="2" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,21 +32,16 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>TxHash</t>
-  </si>
-  <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
   <si>
     <t>ChainID</t>
@@ -315,6 +310,36 @@
   </si>
   <si>
     <t>C05B5246EF3FDCAA917346AA5CB36C49F35B46B709E488964E9542FAEF3F83D3</t>
+  </si>
+  <si>
+    <t>0EE92723CD70BB898EE393CD3733C790B917B96EB3DD3ED98AB681D69D96EC96</t>
+  </si>
+  <si>
+    <t>91542042C8B7D7397CF44961EE9B2998B9709F177C1FDFD549C3D5A939D8C739</t>
+  </si>
+  <si>
+    <t>C2FF2F559DF6D27F9324F6D9E4C2391D521DE217BDD0BC5BB934738133C5C266</t>
+  </si>
+  <si>
+    <t>83D66411A3761D9D7A62D9984292A392FB0228EBBB4E9E97474F68F0AFEB1B0F</t>
+  </si>
+  <si>
+    <t>2893AA5DA7E131E6163CB992902E435BF726DBE3605C7B8655FB5799C053A8D9</t>
+  </si>
+  <si>
+    <t>FAB2A71BAC6FD63656A9E7DC862632D71E26814E30C41DC116DC63B44DE2D4A2</t>
+  </si>
+  <si>
+    <t>091F6D62AF8EE718682384D97E11909A044036CA7E152F9E5412A8479B33F50B</t>
+  </si>
+  <si>
+    <t>BA5CCBA93A0ADE75A3F92F4354FDD6E5A5DBD092B30B760D1CF0FD768CDBB694</t>
+  </si>
+  <si>
+    <t>4565BF08B716639E81D1C1BDE5F461CAB8B09D56EF2883DB2699DAA78E7039C5</t>
+  </si>
+  <si>
+    <t>0DD3BB5AB52BD5073AA7AB08299AEC2784B9D6E08D36BE2271C8B2119B7D3FA0</t>
   </si>
 </sst>
 </file>
@@ -395,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -421,6 +446,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,54 +769,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -817,10 +843,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -836,7 +900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -855,17 +919,17 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -874,7 +938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -882,7 +946,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -893,10 +957,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -912,12 +976,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -931,10 +995,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -942,15 +1006,40 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -958,7 +1047,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -972,48 +1061,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1035,47 +1123,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1097,47 +1185,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1145,7 +1233,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1159,47 +1247,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1221,52 +1309,89 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1283,84 +1408,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1368,7 +1472,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1382,135 +1486,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1523,7 +1549,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1537,12 +1565,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1585,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1571,12 +1601,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1621,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1605,12 +1637,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1639,16 +1671,47 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1675,32 +1738,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1732,27 +1795,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1783,27 +1846,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1834,27 +1897,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1886,35 +1949,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1933,56 +2034,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
